--- a/report/DeepProcessOprationAndProfit.xlsx
+++ b/report/DeepProcessOprationAndProfit.xlsx
@@ -1881,8 +1881,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1120062080"/>
-        <c:axId val="1120057184"/>
+        <c:axId val="-1519645664"/>
+        <c:axId val="-1519643488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2511,11 +2511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1120053920"/>
-        <c:axId val="1120062624"/>
+        <c:axId val="-1519636960"/>
+        <c:axId val="-1519645120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1120062080"/>
+        <c:axId val="-1519645664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120057184"/>
+        <c:crossAx val="-1519643488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1120057184"/>
+        <c:axId val="-1519643488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,12 +2611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120062080"/>
+        <c:crossAx val="-1519645664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1120062624"/>
+        <c:axId val="-1519645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2651,12 +2651,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120053920"/>
+        <c:crossAx val="-1519636960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1120053920"/>
+        <c:axId val="-1519636960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1120062624"/>
+        <c:crossAx val="-1519645120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3489,8 +3489,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1120064256"/>
-        <c:axId val="1120064800"/>
+        <c:axId val="-1519642944"/>
+        <c:axId val="-1519634240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4119,11 +4119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1120065344"/>
-        <c:axId val="1120057728"/>
+        <c:axId val="-1519639136"/>
+        <c:axId val="-1519636416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1120064256"/>
+        <c:axId val="-1519642944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120064800"/>
+        <c:crossAx val="-1519634240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4171,7 +4171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1120064800"/>
+        <c:axId val="-1519634240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,12 +4219,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120064256"/>
+        <c:crossAx val="-1519642944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1120057728"/>
+        <c:axId val="-1519636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -4259,12 +4259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120065344"/>
+        <c:crossAx val="-1519639136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1120065344"/>
+        <c:axId val="-1519639136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1120057728"/>
+        <c:crossAx val="-1519636416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5724,8 +5724,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1120065888"/>
-        <c:axId val="1120066432"/>
+        <c:axId val="-1519639680"/>
+        <c:axId val="-1519644576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6354,11 +6354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1120051744"/>
-        <c:axId val="1120056096"/>
+        <c:axId val="-1519648928"/>
+        <c:axId val="-1519642400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1120065888"/>
+        <c:axId val="-1519639680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120066432"/>
+        <c:crossAx val="-1519644576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6406,7 +6406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1120066432"/>
+        <c:axId val="-1519644576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,12 +6454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120065888"/>
+        <c:crossAx val="-1519639680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1120056096"/>
+        <c:axId val="-1519642400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6493,12 +6493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120051744"/>
+        <c:crossAx val="-1519648928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1120051744"/>
+        <c:axId val="-1519648928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6508,7 +6508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1120056096"/>
+        <c:crossAx val="-1519642400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7194,8 +7194,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1120052288"/>
-        <c:axId val="857745840"/>
+        <c:axId val="-1519647296"/>
+        <c:axId val="-1519641856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7824,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="938207200"/>
-        <c:axId val="857750736"/>
+        <c:axId val="-1519641312"/>
+        <c:axId val="-1519635872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1120052288"/>
+        <c:axId val="-1519647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7868,7 +7868,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857745840"/>
+        <c:crossAx val="-1519641856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7876,7 +7876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="857745840"/>
+        <c:axId val="-1519641856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7924,12 +7924,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1120052288"/>
+        <c:crossAx val="-1519647296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="857750736"/>
+        <c:axId val="-1519635872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7963,12 +7963,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938207200"/>
+        <c:crossAx val="-1519641312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="938207200"/>
+        <c:axId val="-1519641312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,7 +7978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="857750736"/>
+        <c:crossAx val="-1519635872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11312,10 +11312,10 @@
   <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomRight" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/report/DeepProcessOprationAndProfit.xlsx
+++ b/report/DeepProcessOprationAndProfit.xlsx
@@ -1881,8 +1881,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1519645664"/>
-        <c:axId val="-1519643488"/>
+        <c:axId val="-1416254224"/>
+        <c:axId val="-1416248784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2511,11 +2511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1519636960"/>
-        <c:axId val="-1519645120"/>
+        <c:axId val="-1416260208"/>
+        <c:axId val="-1416258576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1519645664"/>
+        <c:axId val="-1416254224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519643488"/>
+        <c:crossAx val="-1416248784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1519643488"/>
+        <c:axId val="-1416248784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,12 +2611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519645664"/>
+        <c:crossAx val="-1416254224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1519645120"/>
+        <c:axId val="-1416258576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -2651,12 +2651,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519636960"/>
+        <c:crossAx val="-1416260208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1519636960"/>
+        <c:axId val="-1416260208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1519645120"/>
+        <c:crossAx val="-1416258576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3489,8 +3489,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1519642944"/>
-        <c:axId val="-1519634240"/>
+        <c:axId val="-1416258032"/>
+        <c:axId val="-1416252048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4119,11 +4119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1519639136"/>
-        <c:axId val="-1519636416"/>
+        <c:axId val="-1416259664"/>
+        <c:axId val="-1416262384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1519642944"/>
+        <c:axId val="-1416258032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519634240"/>
+        <c:crossAx val="-1416252048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4171,7 +4171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1519634240"/>
+        <c:axId val="-1416252048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,12 +4219,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519642944"/>
+        <c:crossAx val="-1416258032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1519636416"/>
+        <c:axId val="-1416262384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -4259,12 +4259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519639136"/>
+        <c:crossAx val="-1416259664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1519639136"/>
+        <c:axId val="-1416259664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1519636416"/>
+        <c:crossAx val="-1416262384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5724,8 +5724,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1519639680"/>
-        <c:axId val="-1519644576"/>
+        <c:axId val="-1416249872"/>
+        <c:axId val="-1416252592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6354,11 +6354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1519648928"/>
-        <c:axId val="-1519642400"/>
+        <c:axId val="-1416249328"/>
+        <c:axId val="-1416251504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1519639680"/>
+        <c:axId val="-1416249872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519644576"/>
+        <c:crossAx val="-1416252592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6406,7 +6406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1519644576"/>
+        <c:axId val="-1416252592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,12 +6454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519639680"/>
+        <c:crossAx val="-1416249872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1519642400"/>
+        <c:axId val="-1416251504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6493,12 +6493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519648928"/>
+        <c:crossAx val="-1416249328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1519648928"/>
+        <c:axId val="-1416249328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6508,7 +6508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1519642400"/>
+        <c:crossAx val="-1416251504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7194,8 +7194,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1519647296"/>
-        <c:axId val="-1519641856"/>
+        <c:axId val="-1416257488"/>
+        <c:axId val="-1416262928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7824,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1519641312"/>
-        <c:axId val="-1519635872"/>
+        <c:axId val="-1416256400"/>
+        <c:axId val="-1416250960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1519647296"/>
+        <c:axId val="-1416257488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7868,7 +7868,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519641856"/>
+        <c:crossAx val="-1416262928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7876,7 +7876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1519641856"/>
+        <c:axId val="-1416262928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7924,12 +7924,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519647296"/>
+        <c:crossAx val="-1416257488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1519635872"/>
+        <c:axId val="-1416250960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7963,12 +7963,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1519641312"/>
+        <c:crossAx val="-1416256400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1519641312"/>
+        <c:axId val="-1416256400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,7 +7978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1519635872"/>
+        <c:crossAx val="-1416250960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11312,10 +11312,10 @@
   <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/report/DeepProcessOprationAndProfit.xlsx
+++ b/report/DeepProcessOprationAndProfit.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,15 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +220,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +256,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -273,7 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +302,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -295,38 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +336,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,7 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,67 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,21 +619,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -679,11 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +659,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,171 +715,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11324,14 +11293,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S116" sqref="S116"/>
+      <selection pane="bottomRight" activeCell="U105" sqref="U105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19495,6 +19464,59 @@
         <v>-153</v>
       </c>
     </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="59">
+        <v>43609</v>
+      </c>
+      <c r="B99" s="3">
+        <v>74.59</v>
+      </c>
+      <c r="C99" s="4">
+        <v>84.18</v>
+      </c>
+      <c r="D99" s="4">
+        <v>79.93</v>
+      </c>
+      <c r="E99" s="5">
+        <v>58.2</v>
+      </c>
+      <c r="F99" s="6">
+        <v>-103</v>
+      </c>
+      <c r="G99" s="7">
+        <v>-29</v>
+      </c>
+      <c r="H99" s="7">
+        <v>-99.2</v>
+      </c>
+      <c r="I99" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="J99" s="8">
+        <v>-56.4</v>
+      </c>
+      <c r="K99" s="9">
+        <v>65.44</v>
+      </c>
+      <c r="L99" s="10">
+        <v>80.86</v>
+      </c>
+      <c r="M99" s="11">
+        <v>61.04</v>
+      </c>
+      <c r="N99" s="12">
+        <v>-78</v>
+      </c>
+      <c r="O99" s="13">
+        <v>-170</v>
+      </c>
+      <c r="P99" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q99" s="14">
+        <v>-110</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>

--- a/report/DeepProcessOprationAndProfit.xlsx
+++ b/report/DeepProcessOprationAndProfit.xlsx
@@ -167,32 +167,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,8 +189,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +227,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -242,37 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -282,18 +304,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,21 +320,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,24 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +442,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,48 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,43 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,15 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,45 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,16 +680,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10990,15 +10990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11007,7 +11007,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1238250" y="20942935"/>
+          <a:off x="1019175" y="22533610"/>
           <a:ext cx="10837545" cy="6555740"/>
           <a:chOff x="2162145" y="3041896"/>
           <a:chExt cx="10833998" cy="7287538"/>
@@ -11376,14 +11376,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH120"/>
+  <dimension ref="A1:AH123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
+      <selection pane="bottomRight" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20016,6 +20016,9 @@
       <c r="A108" s="59">
         <v>43672</v>
       </c>
+      <c r="B108" s="3">
+        <v>65.61</v>
+      </c>
       <c r="C108" s="60">
         <v>82.41</v>
       </c>
@@ -20066,6 +20069,9 @@
       <c r="A109" s="59">
         <v>43679</v>
       </c>
+      <c r="B109" s="3">
+        <v>64.02</v>
+      </c>
       <c r="C109" s="60">
         <v>82.41</v>
       </c>
@@ -20116,6 +20122,9 @@
       <c r="A110" s="59">
         <v>43686</v>
       </c>
+      <c r="B110" s="3">
+        <v>60.54</v>
+      </c>
       <c r="C110" s="60">
         <v>82.41</v>
       </c>
@@ -20166,6 +20175,9 @@
       <c r="A111" s="59">
         <v>43693</v>
       </c>
+      <c r="B111" s="3">
+        <v>61.35</v>
+      </c>
       <c r="C111" s="60">
         <v>82.41</v>
       </c>
@@ -20216,6 +20228,9 @@
       <c r="A112" s="59">
         <v>43700</v>
       </c>
+      <c r="B112" s="3">
+        <v>63.77</v>
+      </c>
       <c r="C112" s="60">
         <v>79.83</v>
       </c>
@@ -20266,6 +20281,9 @@
       <c r="A113" s="59">
         <v>43707</v>
       </c>
+      <c r="B113" s="3">
+        <v>67.02</v>
+      </c>
       <c r="C113" s="60">
         <v>77.91</v>
       </c>
@@ -20316,6 +20334,9 @@
       <c r="A114" s="59">
         <v>43714</v>
       </c>
+      <c r="B114" s="3">
+        <v>70.03</v>
+      </c>
       <c r="C114" s="60">
         <v>79.83</v>
       </c>
@@ -20366,6 +20387,9 @@
       <c r="A115" s="59">
         <v>43721</v>
       </c>
+      <c r="B115" s="3">
+        <v>70.74</v>
+      </c>
       <c r="C115" s="60">
         <v>79.83</v>
       </c>
@@ -20416,6 +20440,9 @@
       <c r="A116" s="59">
         <v>43728</v>
       </c>
+      <c r="B116" s="3">
+        <v>70.53</v>
+      </c>
       <c r="C116" s="60">
         <v>79.83</v>
       </c>
@@ -20466,6 +20493,9 @@
       <c r="A117" s="59">
         <v>43735</v>
       </c>
+      <c r="B117" s="3">
+        <v>69.69</v>
+      </c>
       <c r="C117" s="4">
         <v>79.22</v>
       </c>
@@ -20515,6 +20545,9 @@
     <row r="118" spans="1:17">
       <c r="A118" s="59">
         <v>43742</v>
+      </c>
+      <c r="B118" s="3">
+        <v>65.29</v>
       </c>
       <c r="C118" s="4">
         <v>71.84</v>
@@ -20567,6 +20600,9 @@
         <f>A118+7</f>
         <v>43749</v>
       </c>
+      <c r="B119" s="3">
+        <v>71.89</v>
+      </c>
       <c r="C119" s="4">
         <v>78.88</v>
       </c>
@@ -20618,6 +20654,9 @@
         <f>A119+7</f>
         <v>43756</v>
       </c>
+      <c r="B120" s="3">
+        <v>73.84</v>
+      </c>
       <c r="C120" s="4">
         <v>81.18</v>
       </c>
@@ -20662,6 +20701,168 @@
       </c>
       <c r="Q120" s="14">
         <v>-310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="59">
+        <f>A120+7</f>
+        <v>43763</v>
+      </c>
+      <c r="B121" s="3">
+        <v>73.62</v>
+      </c>
+      <c r="C121" s="4">
+        <v>84.95</v>
+      </c>
+      <c r="D121" s="4">
+        <v>75.91</v>
+      </c>
+      <c r="E121" s="5">
+        <v>59.28</v>
+      </c>
+      <c r="F121" s="6">
+        <v>9</v>
+      </c>
+      <c r="G121" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="H121" s="7">
+        <v>113</v>
+      </c>
+      <c r="I121" s="7">
+        <v>105.8</v>
+      </c>
+      <c r="J121" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="K121" s="9">
+        <v>71.49</v>
+      </c>
+      <c r="L121" s="10">
+        <v>89.19</v>
+      </c>
+      <c r="M121" s="11">
+        <v>60.1</v>
+      </c>
+      <c r="N121" s="12">
+        <v>206</v>
+      </c>
+      <c r="O121" s="13">
+        <v>445</v>
+      </c>
+      <c r="P121" s="13">
+        <v>-155</v>
+      </c>
+      <c r="Q121" s="14">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="59">
+        <f>A121+7</f>
+        <v>43770</v>
+      </c>
+      <c r="B122" s="3">
+        <v>73.74</v>
+      </c>
+      <c r="C122" s="4">
+        <v>84.95</v>
+      </c>
+      <c r="D122" s="4">
+        <v>72.94</v>
+      </c>
+      <c r="E122" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="F122" s="6">
+        <v>25</v>
+      </c>
+      <c r="G122" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="H122" s="7">
+        <v>93</v>
+      </c>
+      <c r="I122" s="7">
+        <v>101.4</v>
+      </c>
+      <c r="J122" s="8">
+        <v>24.32</v>
+      </c>
+      <c r="K122" s="9">
+        <v>72.71</v>
+      </c>
+      <c r="L122" s="10">
+        <v>90.53</v>
+      </c>
+      <c r="M122" s="11">
+        <v>62.88</v>
+      </c>
+      <c r="N122" s="12">
+        <v>247</v>
+      </c>
+      <c r="O122" s="13">
+        <v>452</v>
+      </c>
+      <c r="P122" s="13">
+        <v>-185</v>
+      </c>
+      <c r="Q122" s="14">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="59">
+        <f>A122+7</f>
+        <v>43777</v>
+      </c>
+      <c r="B123" s="3">
+        <v>74.05</v>
+      </c>
+      <c r="C123" s="4">
+        <v>79.03</v>
+      </c>
+      <c r="D123" s="4">
+        <v>77.74</v>
+      </c>
+      <c r="E123" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="F123" s="6">
+        <v>31</v>
+      </c>
+      <c r="G123" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="H123" s="7">
+        <v>33</v>
+      </c>
+      <c r="I123" s="7">
+        <v>109.8</v>
+      </c>
+      <c r="J123" s="8">
+        <v>23.28</v>
+      </c>
+      <c r="K123" s="9">
+        <v>72.32</v>
+      </c>
+      <c r="L123" s="10">
+        <v>91.56</v>
+      </c>
+      <c r="M123" s="11">
+        <v>56.75</v>
+      </c>
+      <c r="N123" s="12">
+        <v>222</v>
+      </c>
+      <c r="O123" s="13">
+        <v>336</v>
+      </c>
+      <c r="P123" s="13">
+        <v>-243</v>
+      </c>
+      <c r="Q123" s="14">
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
